--- a/data/output_1.xlsx
+++ b/data/output_1.xlsx
@@ -388,7 +388,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>alloy_transform (in=[1.0, 2.0] out=[1.0, 1.0, 1.0]) (bins=1)</t>
+          <t>alloys_transform (in=[1, 2] out=[1, 1, 1]) (bins=1)</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>alloy_transform (in=[2.0, 4.0] out=[2.0, 2.0, 2.0]) (bins=2)</t>
+          <t>alloys_transform (in=[2, 4] out=[2, 2, 2]) (bins=2)</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>alloy_transform (in=[3.0, 6.0] out=[3.0, 3.0, 3.0]) (bins=3)</t>
+          <t>alloys_transform (in=[3, 6] out=[3, 3, 3]) (bins=3)</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>alloy_transform (in=[4.0, 8.0] out=[4.0, 4.0, 4.0]) (bins=4)</t>
+          <t>alloys_transform (in=[4, 8] out=[4, 4, 4]) (bins=4)</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>alloy_transform (in=[5.0, 10.0] out=[5.0, 5.0, 5.0]) (bins=5)</t>
+          <t>alloys_transform (in=[5, 10] out=[5, 5, 5]) (bins=5)</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>alloy_transform (in=[6.0, 12.0] out=[6.0, 6.0, 6.0]) (bins=6)</t>
+          <t>alloys_transform (in=[6, 12] out=[6, 6, 6]) (bins=6)</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>alloy_transform (in=[7.0, 14.0] out=[7.0, 7.0, 7.0]) (bins=7)</t>
+          <t>alloys_transform (in=[7, 14] out=[7, 7, 7]) (bins=7)</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>alloy_transform (in=[8.0, 16.0] out=[8.0, 8.0, 8.0]) (bins=8)</t>
+          <t>alloys_transform (in=[8, 16] out=[8, 8, 8]) (bins=8)</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>alloy_transform (in=[9.0, 18.0] out=[9.0, 9.0, 9.0]) (bins=9)</t>
+          <t>alloys_transform (in=[9, 18] out=[9, 9, 9]) (bins=9)</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>alloy_transform (in=[10.0, 20.0] out=[10.0, 10.0, 10.0]) (bins=10)</t>
+          <t>alloys_transform (in=[10, 20] out=[10, 10, 10]) (bins=10)</t>
         </is>
       </c>
     </row>
